--- a/biology/Botanique/Thesium_alpinum/Thesium_alpinum.xlsx
+++ b/biology/Botanique/Thesium_alpinum/Thesium_alpinum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thesium alpinum, le Thésion des Alpes ou Théson des Alpes, est une petite (10-20 cm) plante herbacée vivace de la famille des Santalaceae. On la trouve dans les pelouses naturelles et les rocailles, voire dans les sous-bois, en moyenne montagne eurasiatique.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes[1]</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Linosyris alpina (L.) Kuntze
 Steinreitera secunda Opiz
@@ -546,11 +560,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante est glabre, de couleur vert jaunâtre, présentant une tige étalée en général peu ramifiée.
 Feuilles : linéaires ou étroites-oblongues, une seule nervure.
-Le thésion des Alpes est hermaphrodite (pollinisation entomogame). Il produit de juin à août des grappes de fleurs étroites à quatre (et parfois cinq[2]) pétales et aux bractées 2 ou 3 fois plus longues que la fleur dont le pédicelle est très court et garni de 2 préfeuilles plus courtes que la bractée.
+Le thésion des Alpes est hermaphrodite (pollinisation entomogame). Il produit de juin à août des grappes de fleurs étroites à quatre (et parfois cinq) pétales et aux bractées 2 ou 3 fois plus longues que la fleur dont le pédicelle est très court et garni de 2 préfeuilles plus courtes que la bractée.
 Le fruit est un akène arrondi surmonté d’un périanthe tubulaire blanc à 4 divisions, aussi long que l'akène.
 La dissémination des graines est myrmécochore.
 Il est assez commun dans le Centre, l'Est et le Midi de la France, mais rare aux basses altitudes.
